--- a/TestData/Automation Test Data.xlsx
+++ b/TestData/Automation Test Data.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikshepa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikshepa\eclipse-workspace\SeleniumTestNgProject4thDec\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{08895E4B-F3E8-4F27-889D-2C07C257528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540FCC8E-647C-40E6-84D1-CBF91B3FD327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2314C4DD-37E6-4C80-ABD3-F8F9F5D4E182}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2314C4DD-37E6-4C80-ABD3-F8F9F5D4E182}"/>
   </bookViews>
   <sheets>
     <sheet name="Automation Test Data" sheetId="1" r:id="rId1"/>
+    <sheet name="IMethod" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -44,6 +45,24 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>oginTest</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Validates user login</t>
   </si>
 </sst>
 </file>
@@ -557,11 +576,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA57EEB-840A-4C96-A3CA-367058D28A6A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,4 +987,59 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D2F2CD-9671-4468-B70E-EC1901BCFE17}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>